--- a/BoM.xlsx
+++ b/BoM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>Qty</t>
   </si>
@@ -59,184 +59,178 @@
     <t>Newark</t>
   </si>
   <si>
-    <t>R1Mx, R3Mx</t>
-  </si>
-  <si>
-    <t>R2Mx</t>
-  </si>
-  <si>
-    <t>VISHAY DALE</t>
-  </si>
-  <si>
-    <t>Surface Mount Chip Resistor, Thick Film, AEC-Q200 CRCW Series, 1 kohm, 100 mW, ± 5%, 75 V</t>
-  </si>
-  <si>
-    <t>Surface Mount Chip Resistor, Thick Film, AEC-Q200 CRCW Series, 100 ohm, 100 mW, ± 5%, 75 V</t>
-  </si>
-  <si>
-    <t>CRCW0603100RJNTA</t>
-  </si>
-  <si>
-    <t>31K8856</t>
-  </si>
-  <si>
-    <t>Q1Mx</t>
-  </si>
-  <si>
-    <t>Q2Mx</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>TLV431CDBVR-Low-Voltage Adjustable Precision Shunt Regulator</t>
-  </si>
-  <si>
-    <t>IC</t>
-  </si>
-  <si>
-    <t>Transistor</t>
-  </si>
-  <si>
     <t>Connector</t>
   </si>
   <si>
-    <t>ON SEMICONDUCTOR</t>
-  </si>
-  <si>
-    <t>MMBT3906LT3G</t>
-  </si>
-  <si>
-    <t>09R9450</t>
-  </si>
-  <si>
-    <t>Bipolar (BJT) Single Transistor, PNP, 40 V, 250 MHz, 225 mW, -200 mA, 100</t>
-  </si>
-  <si>
-    <t>Bipolar (BJT) Single Transistor, General Purpose, NPN, 80 V, 50 MHz, 83 W, 15 A, 35</t>
-  </si>
-  <si>
-    <t>D44VH10G</t>
-  </si>
-  <si>
     <t>Subtotal</t>
   </si>
   <si>
-    <t>Terminal Block Header, 9, 150 V, 12 A, 3.5 mm, Through Hole Right Angle, Header</t>
-  </si>
-  <si>
     <t>MULTICOMP</t>
   </si>
   <si>
-    <t>54T7648</t>
-  </si>
-  <si>
-    <t>MCTE-03A09</t>
-  </si>
-  <si>
-    <t>Pluggable Terminal Block, 9, 3.5 mm, 24 AWG, 16 AWG</t>
-  </si>
-  <si>
-    <t>54T7625</t>
-  </si>
-  <si>
-    <t>MCTC-52A09</t>
-  </si>
-  <si>
-    <t>Surface Mount Chip Resistor, Thin Film, MCTF Series, 10 kohm, 62.5 mW, ± 0.1%, 75 V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTICOMP </t>
-  </si>
-  <si>
-    <t>01P2059</t>
-  </si>
-  <si>
-    <t>MCTF0603BTC1002</t>
-  </si>
-  <si>
     <t>PANASONIC ELECTRONIC COMPONENTS</t>
   </si>
   <si>
-    <t>93T7344</t>
-  </si>
-  <si>
-    <t>ERA3ARB2322V</t>
-  </si>
-  <si>
-    <t>Surface Mount Chip Resistor, Thin Film, AEC-Q200 ERA Series, 23.2 kohm, 100 mW, ± 0.1%, 75 V</t>
-  </si>
-  <si>
-    <t>Heatsink MOUNTING KIT, TO-220 TRANSISTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEYSTONE </t>
-  </si>
-  <si>
-    <t>Hardware</t>
-  </si>
-  <si>
-    <t>94F4232</t>
-  </si>
-  <si>
-    <t>X$1</t>
-  </si>
-  <si>
-    <t>Mates to X$1</t>
-  </si>
-  <si>
-    <t>IC1Mx</t>
-  </si>
-  <si>
-    <t>76C8858</t>
-  </si>
-  <si>
-    <t>TLV431AIDBVR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RA1Mx </t>
-  </si>
-  <si>
-    <t>RBMx</t>
-  </si>
-  <si>
-    <t>C1Mx</t>
-  </si>
-  <si>
-    <t>Surface Mount Chip Resistor, Thick Film, AEC-Q200 CRCW Series, 2 Mohm, 100 mW, ± 1%, 75 V</t>
-  </si>
-  <si>
-    <t>CRCW06032M00FKEA</t>
-  </si>
-  <si>
-    <t>52K8249</t>
-  </si>
-  <si>
-    <t>RA2Mx, RA3Mx</t>
-  </si>
-  <si>
-    <t>SMD Multilayer Ceramic Capacitor, GRM Series, 0.01 µF, ± 10%, X7R, 50 V, 0603 [1608 Metric]</t>
-  </si>
-  <si>
-    <t>MURATA</t>
-  </si>
-  <si>
-    <t>GRM188R71H103KA01D</t>
-  </si>
-  <si>
-    <t>38K1669</t>
-  </si>
-  <si>
-    <t>07H2487</t>
-  </si>
-  <si>
-    <t>CRCW06031K00JNEB</t>
-  </si>
-  <si>
-    <t>Mouser</t>
-  </si>
-  <si>
-    <t>863-D44VH10G</t>
+    <t>Sensor Breakout Board V1.0</t>
+  </si>
+  <si>
+    <t>Surface Mount Chip Resistor, Thick Film, AEC-Q200 ERJ Series, 0 ohm, 100 mW, 75 V, 0603 [1608 Metric]</t>
+  </si>
+  <si>
+    <t>65T8702</t>
+  </si>
+  <si>
+    <t>ERJ-3GEY0R00V</t>
+  </si>
+  <si>
+    <t>More economical to buy at least 50</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Surface Mount Chip Resistor, Thick Film, AEC-Q200 CRCW Series, 10 kohm, 100 mW, ± 5%, 75 V</t>
+  </si>
+  <si>
+    <t>VISHAY</t>
+  </si>
+  <si>
+    <t>52K8066</t>
+  </si>
+  <si>
+    <t>CRCW060310K0JNEA</t>
+  </si>
+  <si>
+    <t>R1, R9, R12, R13, R2, R4, R6, R25, R27, R45, R47, R49, R61, R73</t>
+  </si>
+  <si>
+    <t>R15, R28, R31, R35, R74</t>
+  </si>
+  <si>
+    <t>Surface Mount Chip Resistor, Thick Film, RC Series, 1 kohm, 100 mW, ± 5%, 50 V, 0603 [1608 Metric]</t>
+  </si>
+  <si>
+    <t>YAGEO</t>
+  </si>
+  <si>
+    <t>68R0220</t>
+  </si>
+  <si>
+    <t>RC0603JR-131KL</t>
+  </si>
+  <si>
+    <t>R3, R5, R24, R26</t>
+  </si>
+  <si>
+    <t>Non Populated Resistors</t>
+  </si>
+  <si>
+    <t>Surface Mount Chip Resistor, Thick Film, RC Series, 12 kohm, 100 mW, ± 5%, 50 V, 0603 [1608 Metric]</t>
+  </si>
+  <si>
+    <t>68R0149</t>
+  </si>
+  <si>
+    <t>RC0603JR-0712KL</t>
+  </si>
+  <si>
+    <t>R16, R18, R41, R43</t>
+  </si>
+  <si>
+    <t>R17, R19, R42, R44</t>
+  </si>
+  <si>
+    <t>Surface Mount Chip Resistor, Thick Film, AEC-Q200 CRCW Series, 20 kohm, 100 mW, ± 1%, 75 V</t>
+  </si>
+  <si>
+    <t>CRCW060320K0FKEB</t>
+  </si>
+  <si>
+    <t>43C4227</t>
+  </si>
+  <si>
+    <t>Non Populated Capacitors</t>
+  </si>
+  <si>
+    <t>SMD Multilayer Ceramic Capacitor, MC Series, 270 pF, ± 10%, X7R, 50 V, 0603 [1608 Metric]</t>
+  </si>
+  <si>
+    <t>MC0603B271K500CT</t>
+  </si>
+  <si>
+    <t>06R4977</t>
+  </si>
+  <si>
+    <t>C1, C2, C3, C5, C6, C17, C18, C21, C22, C23, C24, C25, C31, C32, C37</t>
+  </si>
+  <si>
+    <t>SMD Multilayer Ceramic Capacitor, MC Series, 2.2 µF, +80%, -20%, Y5V, 10 V, 0603 [1608 Metric]</t>
+  </si>
+  <si>
+    <t>MC0603F225Z100CT</t>
+  </si>
+  <si>
+    <t>06R5087</t>
+  </si>
+  <si>
+    <t>C4, C9, C10, C11, C12, C15</t>
+  </si>
+  <si>
+    <t>Board-To-Board Connector, M22 Series, Through Hole, Receptacle, 10, 2 mm, Gold Plated Contacts</t>
+  </si>
+  <si>
+    <t>HARWIN</t>
+  </si>
+  <si>
+    <t>71K8284</t>
+  </si>
+  <si>
+    <t>M22-7131042</t>
+  </si>
+  <si>
+    <t>X2, X3, X5, X6, X8, X9, X11, X12, X14, X15</t>
+  </si>
+  <si>
+    <t>Board-To-Board Connector, M22 Series, Through Hole, Receptacle, 6, 2 mm, Gold Plated Contacts</t>
+  </si>
+  <si>
+    <t>M22-7140342</t>
+  </si>
+  <si>
+    <t>71K8300</t>
+  </si>
+  <si>
+    <t>X1, X4, X7, X10, X13</t>
+  </si>
+  <si>
+    <t>MOLEX</t>
+  </si>
+  <si>
+    <t>Contact, Micro-Fit 3.0™, 43045 Series, Through Hole, Brass</t>
+  </si>
+  <si>
+    <t>38C9818</t>
+  </si>
+  <si>
+    <t>43045-0200</t>
+  </si>
+  <si>
+    <t>X16</t>
+  </si>
+  <si>
+    <t>Header Connector,PCB Mount,RECEPT,6 Contacts,PIN,0.118 Pitch,R ANGLE PC TAIL Terminal,POLARIZED LCK</t>
+  </si>
+  <si>
+    <t>43045-0601</t>
+  </si>
+  <si>
+    <t>92M1173</t>
+  </si>
+  <si>
+    <t>X17, X18, X19, X20, X21</t>
+  </si>
+  <si>
+    <t>Need contacts, wire, mating connectors, terminating connectors</t>
   </si>
 </sst>
 </file>
@@ -247,7 +241,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +253,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -281,10 +283,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -293,9 +296,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -323,8 +323,29 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -604,10 +625,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,121 +637,91 @@
     <col min="2" max="2" width="87.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="10">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="10">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="1"/>
+      <c r="J2" s="12"/>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>37</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>16</v>
+      <c r="D4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>10</v>
@@ -738,317 +729,399 @@
       <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="11">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="1"/>
+      <c r="H4" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>45</v>
+      <c r="D5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="14"/>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="9">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="13"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>42</v>
+      <c r="D6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="11">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="H6" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="13"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>65</v>
+      <c r="D7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="11">
-        <v>8.0000000000000002E-3</v>
+        <v>34</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1E-3</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="J7" s="13"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>55</v>
+      <c r="E8" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="14"/>
+      <c r="G8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="13"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="11">
-        <v>1.4E-2</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="13"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="12">
-        <v>4724</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="11">
-        <v>1.57</v>
-      </c>
-      <c r="J11" s="14"/>
+      <c r="G11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="13"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1.35</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="13"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>38</v>
+        <v>51</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="11">
-        <v>1.27</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="14"/>
+        <v>57</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="13"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.81</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="13"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="11">
-        <f>SUMPRODUCT(H2:H13,A2:A13)</f>
-        <v>26.34</v>
-      </c>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="A15" s="3">
+        <v>5</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="10">
+        <f>SUMPRODUCT(H3:H15,A3:A15)</f>
+        <v>28.783000000000001</v>
+      </c>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" tooltip="Surface Mount Chip Resistor, Thick Film, AEC-Q200 ERJ Series, 0 ohm, 100 mW, 75 V, 0603 [1608 Metric]" display="http://www.newark.com/panasonic-electronic-components/erj-3gey0r00v/res-thick-film-0r-0-1w-0603/dp/65T8702"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://www.newark.com/panasonic-electronic-components"/>
+    <hyperlink ref="B5" r:id="rId3" tooltip="Surface Mount Chip Resistor, Thick Film, AEC-Q200 CRCW Series, 10 kohm, 100 mW, ± 5%, 75 V" display="http://www.newark.com/vishay-dale/crcw060310k0jnea/res-thick-film-10k-5-0-1w-0603/dp/52K8066"/>
+    <hyperlink ref="D5" r:id="rId4" display="http://www.newark.com/vishay"/>
+    <hyperlink ref="B6" r:id="rId5" tooltip="Surface Mount Chip Resistor, Thick Film, RC Series, 1 kohm, 100 mW, ± 5%, 50 V, 0603 [1608 Metric]" display="http://www.newark.com/yageo/rc0603jr-131kl/res-thick-film-1k-5-0-1w-0603/dp/68R0220"/>
+    <hyperlink ref="D6" r:id="rId6" display="http://www.newark.com/yageo"/>
+    <hyperlink ref="B7" r:id="rId7" tooltip="Surface Mount Chip Resistor, Thick Film, RC Series, 12 kohm, 100 mW, ± 5%, 50 V, 0603 [1608 Metric]" display="http://www.newark.com/yageo/rc0603jr-0712kl/res-thick-film-12k-5-0-1w-0603/dp/68R0149"/>
+    <hyperlink ref="D7" r:id="rId8" display="http://www.newark.com/yageo"/>
+    <hyperlink ref="B8" r:id="rId9" tooltip="Surface Mount Chip Resistor, Thick Film, AEC-Q200 CRCW Series, 20 kohm, 100 mW, ± 1%, 75 V" display="http://www.newark.com/vishay-dale/crcw060320k0fkeb/res-thick-film-20k-1-0-1w-0603/dp/43C4227"/>
+    <hyperlink ref="E8" r:id="rId10" tooltip="CRCW060320K0FKEB" display="http://www.newark.com/vishay-dale/crcw060320k0fkeb/res-thick-film-20k-1-0-1w-0603/dp/43C4227"/>
+    <hyperlink ref="G8" r:id="rId11" tooltip="43C4227" display="http://www.newark.com/vishay-dale/crcw060320k0fkeb/res-thick-film-20k-1-0-1w-0603/dp/43C4227"/>
+    <hyperlink ref="D8" r:id="rId12" tooltip="VISHAY" display="http://www.newark.com/vishay-dale/crcw060320k0fkeb/res-thick-film-20k-1-0-1w-0603/dp/43C4227"/>
+    <hyperlink ref="B10" r:id="rId13" tooltip="SMD Multilayer Ceramic Capacitor, MC Series, 270 pF, ± 10%, X7R, 50 V, 0603 [1608 Metric]" display="http://www.newark.com/multicomp/mc0603b271k500ct/ceramic-capacitor-270pf-50v-x7r/dp/06R4977"/>
+    <hyperlink ref="D10" r:id="rId14" tooltip="MULTICOMP" display="http://www.newark.com/multicomp/mc0603b271k500ct/ceramic-capacitor-270pf-50v-x7r/dp/06R4977"/>
+    <hyperlink ref="E10" r:id="rId15" tooltip="MC0603B271K500CT" display="http://www.newark.com/multicomp/mc0603b271k500ct/ceramic-capacitor-270pf-50v-x7r/dp/06R4977"/>
+    <hyperlink ref="G10" r:id="rId16" tooltip="06R4977" display="http://www.newark.com/multicomp/mc0603b271k500ct/ceramic-capacitor-270pf-50v-x7r/dp/06R4977"/>
+    <hyperlink ref="B11" r:id="rId17" tooltip="SMD Multilayer Ceramic Capacitor, MC Series, 2.2 µF, +80%, -20%, Y5V, 10 V, 0603 [1608 Metric]" display="http://www.newark.com/multicomp/mc0603f225z100ct/ceramic-capacitor-2-2uf-10v-y5v/dp/06R5087"/>
+    <hyperlink ref="D11" r:id="rId18" tooltip="MULTICOMP" display="http://www.newark.com/multicomp/mc0603f225z100ct/ceramic-capacitor-2-2uf-10v-y5v/dp/06R5087"/>
+    <hyperlink ref="E11" r:id="rId19" tooltip="MC0603F225Z100CT" display="http://www.newark.com/multicomp/mc0603f225z100ct/ceramic-capacitor-2-2uf-10v-y5v/dp/06R5087"/>
+    <hyperlink ref="G11" r:id="rId20" tooltip="06R5087" display="http://www.newark.com/multicomp/mc0603f225z100ct/ceramic-capacitor-2-2uf-10v-y5v/dp/06R5087"/>
+    <hyperlink ref="B12" r:id="rId21"/>
+    <hyperlink ref="B13" r:id="rId22"/>
+    <hyperlink ref="B14" r:id="rId23"/>
+    <hyperlink ref="B15" r:id="rId24"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/BoM.xlsx
+++ b/BoM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>Qty</t>
   </si>
@@ -228,9 +228,6 @@
   </si>
   <si>
     <t>X17, X18, X19, X20, X21</t>
-  </si>
-  <si>
-    <t>Need contacts, wire, mating connectors, terminating connectors</t>
   </si>
 </sst>
 </file>
@@ -323,9 +320,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -342,6 +336,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -625,10 +622,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,17 +643,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -691,33 +688,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+    <row r="3" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
         <v>37</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="20"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>14</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
@@ -744,13 +741,13 @@
       <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E5" t="s">
@@ -775,13 +772,13 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E6" t="s">
@@ -806,13 +803,13 @@
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="s">
@@ -837,22 +834,22 @@
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="10">
@@ -882,22 +879,22 @@
       <c r="A10" s="3">
         <v>15</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="10">
@@ -913,22 +910,22 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>47</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>48</v>
       </c>
       <c r="H11" s="10">
@@ -944,7 +941,7 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -975,7 +972,7 @@
       <c r="A13" s="3">
         <v>5</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1006,7 +1003,7 @@
       <c r="A14" s="3">
         <v>1</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1037,7 +1034,7 @@
       <c r="A15" s="3">
         <v>5</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1065,31 +1062,22 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
       <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H16" s="10">
         <f>SUMPRODUCT(H3:H15,A3:A15)</f>
         <v>28.783000000000001</v>
       </c>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="10"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
       <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="3"/>
-      <c r="F20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/BoM.xlsx
+++ b/BoM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>Qty</t>
   </si>
@@ -228,6 +228,33 @@
   </si>
   <si>
     <t>X17, X18, X19, X20, X21</t>
+  </si>
+  <si>
+    <t>Board-To-Board Connector, M22 Series, Through Hole, Header, 6, 2 mm, Gold Plated Contacts</t>
+  </si>
+  <si>
+    <t>M22-2520305</t>
+  </si>
+  <si>
+    <t>89H8939</t>
+  </si>
+  <si>
+    <t>X22</t>
+  </si>
+  <si>
+    <t>Jumper (Busbar), Shunt, Shunt, Pin Headers, 2, 2 mm</t>
+  </si>
+  <si>
+    <t>Jumper</t>
+  </si>
+  <si>
+    <t>M22-1920046</t>
+  </si>
+  <si>
+    <t>03M3588</t>
+  </si>
+  <si>
+    <t>Mates with X22</t>
   </si>
 </sst>
 </file>
@@ -622,10 +649,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +717,7 @@
     </row>
     <row r="3" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>32</v>
@@ -863,7 +890,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -877,7 +904,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>42</v>
@@ -1062,22 +1089,84 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0.435</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0.154</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="10">
-        <f>SUMPRODUCT(H3:H15,A3:A15)</f>
-        <v>28.783000000000001</v>
-      </c>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="H18" s="10">
+        <f>SUMPRODUCT(H3:H17,A3:A17)</f>
+        <v>29.527999999999995</v>
+      </c>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1108,8 +1197,10 @@
     <hyperlink ref="B13" r:id="rId22"/>
     <hyperlink ref="B14" r:id="rId23"/>
     <hyperlink ref="B15" r:id="rId24"/>
+    <hyperlink ref="B16" r:id="rId25"/>
+    <hyperlink ref="B17" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
--- a/BoM.xlsx
+++ b/BoM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>Qty</t>
   </si>
@@ -81,12 +81,6 @@
   </si>
   <si>
     <t>ERJ-3GEY0R00V</t>
-  </si>
-  <si>
-    <t>More economical to buy at least 50</t>
-  </si>
-  <si>
-    <t>Notes:</t>
   </si>
   <si>
     <t>Surface Mount Chip Resistor, Thick Film, AEC-Q200 CRCW Series, 10 kohm, 100 mW, ± 5%, 75 V</t>
@@ -652,7 +646,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="K2" sqref="K2:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,16 +705,13 @@
         <v>8</v>
       </c>
       <c r="J2" s="12"/>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="3" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>35</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -757,40 +748,38 @@
         <v>0.1</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J4" s="13"/>
-      <c r="K4" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
       <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="9">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="1"/>
@@ -800,28 +789,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H6" s="10">
         <v>2E-3</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="1"/>
@@ -831,28 +820,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" s="10">
         <v>1E-3</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="1"/>
@@ -862,28 +851,28 @@
         <v>4</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H8" s="10">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="1"/>
@@ -893,7 +882,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -907,7 +896,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
@@ -916,19 +905,19 @@
         <v>13</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H10" s="10">
         <v>2E-3</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="1"/>
@@ -938,7 +927,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
@@ -947,19 +936,19 @@
         <v>13</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H11" s="10">
         <v>0.01</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="1"/>
@@ -969,28 +958,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
         <v>51</v>
       </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
       <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H12" s="10">
         <v>1.35</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="1"/>
@@ -1000,28 +989,28 @@
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H13" s="10">
         <v>0.72799999999999998</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="1"/>
@@ -1031,28 +1020,28 @@
         <v>1</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
         <v>59</v>
-      </c>
-      <c r="E14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>61</v>
       </c>
       <c r="H14" s="10">
         <v>0.81</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="1"/>
@@ -1062,28 +1051,28 @@
         <v>5</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H15" s="10">
         <v>1.83</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="1"/>
@@ -1093,28 +1082,28 @@
         <v>1</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H16" s="10">
         <v>0.435</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="1"/>
@@ -1124,28 +1113,28 @@
         <v>2</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="F17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
         <v>73</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
-        <v>75</v>
       </c>
       <c r="H17" s="10">
         <v>0.154</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="1"/>
